--- a/Archivos Excel/musician.xlsx
+++ b/Archivos Excel/musician.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\SkyDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0357F-F7A2-4224-B164-D413AB48A5D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FAFE2-2E56-4958-8147-C423CA0680F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C649BC04-75C8-4995-B443-B7223D90B645}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve"> 'Flanagan'</t>
   </si>
   <si>
-    <t>Kelly'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'Chambers'</t>
   </si>
   <si>
@@ -189,6 +186,111 @@
   </si>
   <si>
     <t>#Reincidentes´s Band ID: 430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Keith'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mike'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Charlie'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Ron'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Jagger'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Richards'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Watts'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Kelly'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Wood'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Cockspur St'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'London'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Dartford'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Orchard St'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Kent'</t>
+  </si>
+  <si>
+    <t>Middlesex St'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Angus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Brian'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Stevie'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Phil'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Johnson'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Young'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Rudd'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Gateshead'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Dunston'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Rendel St'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Home Gardens St'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Melbourne'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Victoria'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'La Trobe St'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sidney'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Glasgow'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sauchihall St'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Water St'</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones's Band ID: 781</t>
+  </si>
+  <si>
+    <t>#ACDC's Band ID: 362</t>
   </si>
 </sst>
 </file>
@@ -212,12 +314,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,13 +340,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,464 +665,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA6A6C-D959-4D23-8B2E-B5C62CFD8FFB}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="4">
         <v>6166844</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4">
+        <v>28345</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4">
+        <v>699278486</v>
+      </c>
+      <c r="I1" s="4">
+        <v>932754923</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>5334423</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1">
-        <v>28345</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" s="4">
+        <v>48212</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1">
-        <v>699278486</v>
-      </c>
-      <c r="I1">
-        <v>932754923</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5334423</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="4">
+        <v>642856023</v>
+      </c>
+      <c r="I2" s="4">
+        <v>923435645</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>4628696</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>48212</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="4">
+        <v>11216</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>694960342</v>
+      </c>
+      <c r="I3" s="4">
+        <v>964012435</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>8484326</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15222</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2">
-        <v>642856023</v>
-      </c>
-      <c r="I2">
-        <v>923435645</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4628696</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>11216</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H4" s="4">
+        <v>684245245</v>
+      </c>
+      <c r="I4" s="4">
+        <v>908335928</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5427651</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7030</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>648485012</v>
+      </c>
+      <c r="I5" s="4">
+        <v>903847395</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5264892</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4">
+        <v>46224</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4">
+        <v>638964274</v>
+      </c>
+      <c r="I7" s="4">
+        <v>923754964</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5672350</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4">
+        <v>28403</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H8" s="4">
+        <v>634346923</v>
+      </c>
+      <c r="I8" s="4">
+        <v>960255970</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9452841</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4">
+        <v>28403</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H9" s="4">
+        <v>634856231</v>
+      </c>
+      <c r="I9" s="4">
+        <v>954734923</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5392301</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4">
+        <v>28403</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4">
+        <v>634753078</v>
+      </c>
+      <c r="I10" s="4">
+        <v>923754923</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>4136534</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>31013</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="4">
+        <v>693275436</v>
+      </c>
+      <c r="I12" s="4">
+        <v>933454323</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>7376429</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4">
+        <v>31013</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="4">
+        <v>694832128</v>
+      </c>
+      <c r="I13" s="4">
+        <v>985426645</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>4949485</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4">
+        <v>31013</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4">
         <v>694960342</v>
       </c>
-      <c r="I3">
+      <c r="I14" s="4">
         <v>964012435</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8484326</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>15222</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>684245245</v>
-      </c>
-      <c r="I4">
-        <v>908335928</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5427651</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>7030</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>648485012</v>
-      </c>
-      <c r="I5">
-        <v>903847395</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5264892</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>46224</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>638964274</v>
-      </c>
-      <c r="I7">
-        <v>923754964</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5672350</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>28403</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>634346923</v>
-      </c>
-      <c r="I8">
-        <v>960255970</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9452841</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>28403</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>634856231</v>
-      </c>
-      <c r="I9">
-        <v>954734923</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5392301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>28403</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>634753078</v>
-      </c>
-      <c r="I10">
-        <v>923754923</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4136534</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>4949365</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4">
+        <v>31013</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E12">
+      <c r="G15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="4">
+        <v>684345269</v>
+      </c>
+      <c r="I15" s="4">
+        <v>903927562</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>5453651</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4">
         <v>31013</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12">
-        <v>693275436</v>
-      </c>
-      <c r="I12">
-        <v>933454323</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="H16" s="4">
+        <v>648425012</v>
+      </c>
+      <c r="I16" s="4">
+        <v>983243621</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8321941</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="6">
+        <v>70312</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="6">
+        <v>432758192</v>
+      </c>
+      <c r="I19" s="6">
+        <v>948928192</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>7984074</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7376429</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>31013</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13">
-        <v>694832128</v>
-      </c>
-      <c r="I13">
-        <v>985426645</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4949485</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <v>31013</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14">
-        <v>694960342</v>
-      </c>
-      <c r="I14">
-        <v>964012435</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4949365</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15">
-        <v>31013</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15">
-        <v>684345269</v>
-      </c>
-      <c r="I15">
-        <v>903927562</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5453651</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16">
-        <v>31013</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <v>648425012</v>
-      </c>
-      <c r="I16">
-        <v>983243621</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="6">
+        <v>70312</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="6">
+        <v>432753281</v>
+      </c>
+      <c r="I20" s="6">
+        <v>942076582</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7438203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="6">
+        <v>70311</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="6">
+        <v>492758132</v>
+      </c>
+      <c r="I21" s="6">
+        <v>947327617</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4632752</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6">
+        <v>70312</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="6">
+        <v>432039192</v>
+      </c>
+      <c r="I22" s="6">
+        <v>903725131</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8372185</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="6">
+        <v>70322</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="6">
+        <v>487509419</v>
+      </c>
+      <c r="I24" s="6">
+        <v>941297051</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3245623</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="6">
+        <v>70312</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="6">
+        <v>432191930</v>
+      </c>
+      <c r="I25" s="6">
+        <v>943214751</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3144134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="6">
+        <v>70311</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="6">
+        <v>457129104</v>
+      </c>
+      <c r="I26" s="6">
+        <v>937518239</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>4321561</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="6">
+        <v>70312</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="6">
+        <v>441732910</v>
+      </c>
+      <c r="I27" s="6">
+        <v>934175182</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="K1:L5"/>
     <mergeCell ref="K7:L10"/>
     <mergeCell ref="K12:L16"/>
+    <mergeCell ref="K19:L22"/>
+    <mergeCell ref="K24:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Archivos Excel/musician.xlsx
+++ b/Archivos Excel/musician.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FAFE2-2E56-4958-8147-C423CA0680F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CF1234-4AEE-4045-80CB-72A9D07CF5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C649BC04-75C8-4995-B443-B7223D90B645}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -291,22 +291,23 @@
   </si>
   <si>
     <t>#ACDC's Band ID: 362</t>
+  </si>
+  <si>
+    <t>insert into musician values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -340,17 +341,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA6A6C-D959-4D23-8B2E-B5C62CFD8FFB}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="N23" activeCellId="3" sqref="N6 N11 N17:N18 N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,472 +676,538 @@
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>6166844</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>28345</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="2">
         <v>699278486</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="2">
         <v>932754923</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="L1" s="6"/>
+      <c r="N1" t="str">
+        <f>CONCATENATE($P$1,E1,$P$3,F1,$P$3,G1,$P$3,H1,$P$3,I1,$P$2)</f>
+        <v>insert into musician values(28345, 'Hamlet', 'North Carolina',699278486,932754923);</v>
+      </c>
+      <c r="P1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>5334423</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>48212</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>642856023</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>923435645</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N27" si="0">CONCATENATE($P$1,E2,$P$3,F2,$P$3,G2,$P$3,H2,$P$3,I2,$P$2)</f>
+        <v>insert into musician values(48212, 'Detroit', 'Michigan',642856023,923435645);</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>4628696</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>11216</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>694960342</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>964012435</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(11216, 'New York', 'New York',694960342,964012435);</v>
+      </c>
+      <c r="P3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>8484326</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>15222</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>684245245</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>908335928</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(15222, 'Pittsburgh', 'Pensilvania',684245245,908335928);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>5427651</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>7030</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>648485012</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>903847395</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(7030, 'New York', 'New York',648485012,903847395);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5264892</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>46224</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>638964274</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>923754964</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="L7" s="6"/>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(46224, 'Indianapolis', 'Indiana',638964274,923754964);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>5672350</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>28403</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>634346923</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>960255970</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(28403, 'Willmington', 'North Carolina',634346923,960255970);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>9452841</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>28403</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>634856231</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>954734923</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(28403, 'Willmington', 'North Carolina',634856231,954734923);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>5392301</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>28403</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>634753078</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>923754923</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(28403, 'Willmington', 'North Carolina',634753078,923754923);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>4136534</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>31013</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>693275436</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>933454323</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="L12" s="6"/>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(31013, 'Berriozar', 'Navarra',693275436,933454323);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>7376429</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>31013</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>694832128</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>985426645</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(31013, 'Berriozar', 'Navarra',694832128,985426645);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>4949485</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>31013</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>694960342</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>964012435</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(31013, 'Berriozar', 'Navarra',694960342,964012435);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>4949365</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>31013</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>684345269</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>903927562</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(31013, 'Berriozar', 'Navarra',684345269,903927562);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>5453651</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>31013</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>648425012</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>983243621</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(31013, 'Berriozar', 'Navarra',648425012,983243621);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8321941</v>
       </c>
@@ -1154,27 +1220,31 @@
       <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>70312</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>432758192</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>948928192</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="6"/>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70312, 'Dartford', 'Kent',432758192,948928192);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7984074</v>
       </c>
@@ -1187,25 +1257,29 @@
       <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>70312</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <v>432753281</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>942076582</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70312, 'Dartford', 'Kent',432753281,942076582);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7438203</v>
       </c>
@@ -1218,25 +1292,29 @@
       <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>70311</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <v>492758132</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>947327617</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70311, 'London', 'London',492758132,947327617);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4632752</v>
       </c>
@@ -1249,25 +1327,29 @@
       <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>70312</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <v>432039192</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <v>903725131</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70312, 'London', 'London',432039192,903725131);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8372185</v>
       </c>
@@ -1280,27 +1362,31 @@
       <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>70322</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <v>487509419</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
         <v>941297051</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="6"/>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70322, 'Dunston', 'Gateshead',487509419,941297051);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3245623</v>
       </c>
@@ -1313,25 +1399,29 @@
       <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>70312</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <v>432191930</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>943214751</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70312, 'Sidney', 'Sidney',432191930,943214751);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3144134</v>
       </c>
@@ -1344,25 +1434,29 @@
       <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>70311</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>457129104</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>937518239</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70311, 'Glasgow', 'London',457129104,937518239);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4321561</v>
       </c>
@@ -1375,23 +1469,27 @@
       <c r="D27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>70312</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>441732910</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>934175182</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musician values(70312, 'Melbourne', 'Victoria',441732910,934175182);</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Archivos Excel/musician.xlsx
+++ b/Archivos Excel/musician.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CF1234-4AEE-4045-80CB-72A9D07CF5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23C239-FD0E-4B02-AAF9-9D6B23075F61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C649BC04-75C8-4995-B443-B7223D90B645}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t xml:space="preserve"> 'Kent'</t>
   </si>
   <si>
-    <t>Middlesex St'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'Angus'</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Middlesex St'</t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -351,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA6A6C-D959-4D23-8B2E-B5C62CFD8FFB}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N23" activeCellId="3" sqref="N6 N11 N17:N18 N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +677,7 @@
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="134.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,11 +714,11 @@
       </c>
       <c r="L1" s="6"/>
       <c r="N1" t="str">
-        <f>CONCATENATE($P$1,E1,$P$3,F1,$P$3,G1,$P$3,H1,$P$3,I1,$P$2)</f>
-        <v>insert into musician values(28345, 'Hamlet', 'North Carolina',699278486,932754923);</v>
+        <f>CONCATENATE($P$1,A1,$P$3,B1,$P$3,C1,$P$3,D1,$P$3,E1,$P$3,F1,$P$3,G1,$P$3,H1,$P$3,I1,$P$2)</f>
+        <v>insert into musician values(6166844, 'John', 'Coltrane', 'W Hamlet Ave 28',28345, 'Hamlet', 'North Carolina',699278486,932754923);</v>
       </c>
       <c r="P1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -751,11 +752,11 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N27" si="0">CONCATENATE($P$1,E2,$P$3,F2,$P$3,G2,$P$3,H2,$P$3,I2,$P$2)</f>
-        <v>insert into musician values(48212, 'Detroit', 'Michigan',642856023,923435645);</v>
+        <f t="shared" ref="N2:N27" si="0">CONCATENATE($P$1,A2,$P$3,B2,$P$3,C2,$P$3,D2,$P$3,E2,$P$3,F2,$P$3,G2,$P$3,H2,$P$3,I2,$P$2)</f>
+        <v>insert into musician values(5334423, 'Tommy', 'Flanagan', 'Grand Haven St',48212, 'Detroit', 'Michigan',642856023,923435645);</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -790,10 +791,10 @@
       <c r="L3" s="6"/>
       <c r="N3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(11216, 'New York', 'New York',694960342,964012435);</v>
+        <v>insert into musician values(4628696, Wynton', 'Kelly', 'Bedford Ave',11216, 'New York', 'New York',694960342,964012435);</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -828,7 +829,7 @@
       <c r="L4" s="6"/>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(15222, 'Pittsburgh', 'Pensilvania',684245245,908335928);</v>
+        <v>insert into musician values(8484326, 'Paul', 'Chambers', 'Penn Ave',15222, 'Pittsburgh', 'Pensilvania',684245245,908335928);</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -863,7 +864,7 @@
       <c r="L5" s="6"/>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(7030, 'New York', 'New York',648485012,903847395);</v>
+        <v>insert into musician values(5427651, Art', 'Taylor', 'Jefferson St',7030, 'New York', 'New York',648485012,903847395);</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -911,7 +912,7 @@
       <c r="L7" s="6"/>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(46224, 'Indianapolis', 'Indiana',638964274,923754964);</v>
+        <v>insert into musician values(5264892, 'Wes', 'Montgomery', 'Allison Ave',46224, 'Indianapolis', 'Indiana',638964274,923754964);</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -946,7 +947,7 @@
       <c r="L8" s="6"/>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(28403, 'Willmington', 'North Carolina',634346923,960255970);</v>
+        <v>insert into musician values(5672350, 'Percy', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634346923,960255970);</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -981,7 +982,7 @@
       <c r="L9" s="6"/>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(28403, 'Willmington', 'North Carolina',634856231,954734923);</v>
+        <v>insert into musician values(9452841, 'Albert', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634856231,954734923);</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1016,7 +1017,7 @@
       <c r="L10" s="6"/>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(28403, 'Willmington', 'North Carolina',634753078,923754923);</v>
+        <v>insert into musician values(5392301, 'Jimmy', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634753078,923754923);</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1064,7 +1065,7 @@
       <c r="L12" s="6"/>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(31013, 'Berriozar', 'Navarra',693275436,933454323);</v>
+        <v>insert into musician values(4136534, 'Kutxi', 'Romero', 'Etxebakar St 8',31013, 'Berriozar', 'Navarra',693275436,933454323);</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1099,7 +1100,7 @@
       <c r="L13" s="6"/>
       <c r="N13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(31013, 'Berriozar', 'Navarra',694832128,985426645);</v>
+        <v>insert into musician values(7376429, 'Eduardo', 'Beaumont', 'Eunsasi St 14',31013, 'Berriozar', 'Navarra',694832128,985426645);</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1134,7 +1135,7 @@
       <c r="L14" s="6"/>
       <c r="N14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(31013, 'Berriozar', 'Navarra',694960342,964012435);</v>
+        <v>insert into musician values(4949485, 'Cesar', 'Ramallo', 'Kaleberri St 9',31013, 'Berriozar', 'Navarra',694960342,964012435);</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1169,7 +1170,7 @@
       <c r="L15" s="6"/>
       <c r="N15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(31013, 'Berriozar', 'Navarra',684345269,903927562);</v>
+        <v>insert into musician values(4949365, 'David', 'Diaz', 'Guipuzcoa Ave',31013, 'Berriozar', 'Navarra',684345269,903927562);</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1204,7 +1205,7 @@
       <c r="L16" s="6"/>
       <c r="N16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(31013, 'Berriozar', 'Navarra',648425012,983243621);</v>
+        <v>insert into musician values(5453651, 'Alen', 'Ayerdi', 'Oianondoa St 4',31013, 'Berriozar', 'Navarra',648425012,983243621);</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1236,12 +1237,12 @@
         <v>948928192</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="6"/>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(70312, 'Dartford', 'Kent',432758192,948928192);</v>
+        <v>insert into musician values(8321941, 'Mike', 'Jagger', 'Orchard St',70312, 'Dartford', 'Kent',432758192,948928192);</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1255,7 +1256,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4">
         <v>70312</v>
@@ -1276,7 +1277,7 @@
       <c r="L20" s="6"/>
       <c r="N20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(70312, 'Dartford', 'Kent',432753281,942076582);</v>
+        <v>insert into musician values(7984074, 'Keith', 'Richards', 'Home Gardens St',70312, 'Dartford', 'Kent',432753281,942076582);</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1311,7 +1312,7 @@
       <c r="L21" s="6"/>
       <c r="N21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(70311, 'London', 'London',492758132,947327617);</v>
+        <v>insert into musician values(7438203, 'Charlie', 'Watts', 'Cockspur St',70311, 'London', 'London',492758132,947327617);</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1325,7 +1326,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4">
         <v>70312</v>
@@ -1345,31 +1346,34 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="N22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(70312, 'London', 'London',432039192,903725131);</v>
-      </c>
+        <f>CONCATENATE($P$1,A22,$P$3,B22,$P$3,C22,$P$3,D22,$P$3,E22,$P$3,F22,$P$3,G22,$P$3,H22,$P$3,I22,$P$2)</f>
+        <v>insert into musician values(4632752, 'Ron', 'Wood', 'Middlesex St',70312, 'London', 'London',432039192,903725131);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8372185</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4">
         <v>70322</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="4">
         <v>487509419</v>
@@ -1378,12 +1382,12 @@
         <v>941297051</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L24" s="6"/>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(70322, 'Dunston', 'Gateshead',487509419,941297051);</v>
+        <v>insert into musician values(8372185, 'Brian', 'Johnson', 'Rendel St',70322, 'Dunston', 'Gateshead',487509419,941297051);</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1391,22 +1395,22 @@
         <v>3245623</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4">
         <v>70312</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="4">
         <v>432191930</v>
@@ -1418,7 +1422,7 @@
       <c r="L25" s="6"/>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(70312, 'Sidney', 'Sidney',432191930,943214751);</v>
+        <v>insert into musician values(3245623, 'Angus', 'Young', 'Water St',70312, 'Sidney', 'Sidney',432191930,943214751);</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1426,19 +1430,19 @@
         <v>3144134</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4">
         <v>70311</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>62</v>
@@ -1453,7 +1457,7 @@
       <c r="L26" s="6"/>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(70311, 'Glasgow', 'London',457129104,937518239);</v>
+        <v>insert into musician values(3144134, 'Stevie', 'Young', 'Sauchihall St',70311, 'Glasgow', 'London',457129104,937518239);</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1461,22 +1465,22 @@
         <v>4321561</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4">
         <v>70312</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="H27" s="4">
         <v>441732910</v>
@@ -1488,7 +1492,7 @@
       <c r="L27" s="6"/>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(70312, 'Melbourne', 'Victoria',441732910,934175182);</v>
+        <v>insert into musician values(4321561, 'Phil', 'Rudd', 'La Trobe St',70312, 'Melbourne', 'Victoria',441732910,934175182);</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos Excel/musician.xlsx
+++ b/Archivos Excel/musician.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23C239-FD0E-4B02-AAF9-9D6B23075F61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF82C4D-BB8B-4001-9867-23F994066BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{C649BC04-75C8-4995-B443-B7223D90B645}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA6A6C-D959-4D23-8B2E-B5C62CFD8FFB}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,13 +709,16 @@
       <c r="I1" s="2">
         <v>932754923</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1">
+        <v>0</v>
+      </c>
       <c r="N1" t="str">
-        <f>CONCATENATE($P$1,A1,$P$3,B1,$P$3,C1,$P$3,D1,$P$3,E1,$P$3,F1,$P$3,G1,$P$3,H1,$P$3,I1,$P$2)</f>
-        <v>insert into musician values(6166844, 'John', 'Coltrane', 'W Hamlet Ave 28',28345, 'Hamlet', 'North Carolina',699278486,932754923);</v>
+        <f>CONCATENATE($P$1,$M$1,A1,$P$3,B1,$P$3,C1,$P$3,D1,$P$3,E1,$P$3,F1,$P$3,G1,$P$3,H1,$P$3,I1,$P$2)</f>
+        <v>insert into musician values(06166844, 'John', 'Coltrane', 'W Hamlet Ave 28',28345, 'Hamlet', 'North Carolina',699278486,932754923);</v>
       </c>
       <c r="P1" t="s">
         <v>86</v>
@@ -749,11 +752,11 @@
       <c r="I2" s="2">
         <v>923435645</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N27" si="0">CONCATENATE($P$1,A2,$P$3,B2,$P$3,C2,$P$3,D2,$P$3,E2,$P$3,F2,$P$3,G2,$P$3,H2,$P$3,I2,$P$2)</f>
-        <v>insert into musician values(5334423, 'Tommy', 'Flanagan', 'Grand Haven St',48212, 'Detroit', 'Michigan',642856023,923435645);</v>
+        <f t="shared" ref="N2:N16" si="0">CONCATENATE($P$1,$M$1,A2,$P$3,B2,$P$3,C2,$P$3,D2,$P$3,E2,$P$3,F2,$P$3,G2,$P$3,H2,$P$3,I2,$P$2)</f>
+        <v>insert into musician values(05334423, 'Tommy', 'Flanagan', 'Grand Haven St',48212, 'Detroit', 'Michigan',642856023,923435645);</v>
       </c>
       <c r="P2" t="s">
         <v>87</v>
@@ -787,11 +790,11 @@
       <c r="I3" s="2">
         <v>964012435</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="N3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(4628696, Wynton', 'Kelly', 'Bedford Ave',11216, 'New York', 'New York',694960342,964012435);</v>
+        <v>insert into musician values(04628696, Wynton', 'Kelly', 'Bedford Ave',11216, 'New York', 'New York',694960342,964012435);</v>
       </c>
       <c r="P3" t="s">
         <v>88</v>
@@ -825,11 +828,11 @@
       <c r="I4" s="2">
         <v>908335928</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(8484326, 'Paul', 'Chambers', 'Penn Ave',15222, 'Pittsburgh', 'Pensilvania',684245245,908335928);</v>
+        <v>insert into musician values(08484326, 'Paul', 'Chambers', 'Penn Ave',15222, 'Pittsburgh', 'Pensilvania',684245245,908335928);</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -860,11 +863,11 @@
       <c r="I5" s="2">
         <v>903847395</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(5427651, Art', 'Taylor', 'Jefferson St',7030, 'New York', 'New York',648485012,903847395);</v>
+        <v>insert into musician values(05427651, Art', 'Taylor', 'Jefferson St',7030, 'New York', 'New York',648485012,903847395);</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -906,13 +909,13 @@
       <c r="I7" s="2">
         <v>923754964</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="7"/>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(5264892, 'Wes', 'Montgomery', 'Allison Ave',46224, 'Indianapolis', 'Indiana',638964274,923754964);</v>
+        <v>insert into musician values(05264892, 'Wes', 'Montgomery', 'Allison Ave',46224, 'Indianapolis', 'Indiana',638964274,923754964);</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -943,11 +946,11 @@
       <c r="I8" s="2">
         <v>960255970</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(5672350, 'Percy', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634346923,960255970);</v>
+        <v>insert into musician values(05672350, 'Percy', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634346923,960255970);</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -978,11 +981,11 @@
       <c r="I9" s="2">
         <v>954734923</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(9452841, 'Albert', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634856231,954734923);</v>
+        <v>insert into musician values(09452841, 'Albert', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634856231,954734923);</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1013,11 +1016,11 @@
       <c r="I10" s="2">
         <v>923754923</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="N10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(5392301, 'Jimmy', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634753078,923754923);</v>
+        <v>insert into musician values(05392301, 'Jimmy', 'Heath', 'Wrightsville Ave',28403, 'Willmington', 'North Carolina',634753078,923754923);</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1059,13 +1062,13 @@
       <c r="I12" s="2">
         <v>933454323</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="7"/>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(4136534, 'Kutxi', 'Romero', 'Etxebakar St 8',31013, 'Berriozar', 'Navarra',693275436,933454323);</v>
+        <v>insert into musician values(04136534, 'Kutxi', 'Romero', 'Etxebakar St 8',31013, 'Berriozar', 'Navarra',693275436,933454323);</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1096,11 +1099,11 @@
       <c r="I13" s="2">
         <v>985426645</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="N13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(7376429, 'Eduardo', 'Beaumont', 'Eunsasi St 14',31013, 'Berriozar', 'Navarra',694832128,985426645);</v>
+        <v>insert into musician values(07376429, 'Eduardo', 'Beaumont', 'Eunsasi St 14',31013, 'Berriozar', 'Navarra',694832128,985426645);</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1131,11 +1134,11 @@
       <c r="I14" s="2">
         <v>964012435</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="N14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(4949485, 'Cesar', 'Ramallo', 'Kaleberri St 9',31013, 'Berriozar', 'Navarra',694960342,964012435);</v>
+        <v>insert into musician values(04949485, 'Cesar', 'Ramallo', 'Kaleberri St 9',31013, 'Berriozar', 'Navarra',694960342,964012435);</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1166,11 +1169,11 @@
       <c r="I15" s="2">
         <v>903927562</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="N15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(4949365, 'David', 'Diaz', 'Guipuzcoa Ave',31013, 'Berriozar', 'Navarra',684345269,903927562);</v>
+        <v>insert into musician values(04949365, 'David', 'Diaz', 'Guipuzcoa Ave',31013, 'Berriozar', 'Navarra',684345269,903927562);</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1201,11 +1204,11 @@
       <c r="I16" s="2">
         <v>983243621</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="N16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into musician values(5453651, 'Alen', 'Ayerdi', 'Oianondoa St 4',31013, 'Berriozar', 'Navarra',648425012,983243621);</v>
+        <v>insert into musician values(05453651, 'Alen', 'Ayerdi', 'Oianondoa St 4',31013, 'Berriozar', 'Navarra',648425012,983243621);</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1236,13 +1239,13 @@
       <c r="I19" s="4">
         <v>948928192</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="7"/>
       <c r="N19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(8321941, 'Mike', 'Jagger', 'Orchard St',70312, 'Dartford', 'Kent',432758192,948928192);</v>
+        <f t="shared" ref="N19:N22" si="1">CONCATENATE($P$1,$M$1,A19,$P$3,B19,$P$3,C19,$P$3,D19,$P$3,E19,$P$3,F19,$P$3,G19,$P$3,H19,$P$3,I19,$P$2)</f>
+        <v>insert into musician values(08321941, 'Mike', 'Jagger', 'Orchard St',70312, 'Dartford', 'Kent',432758192,948928192);</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1273,11 +1276,11 @@
       <c r="I20" s="4">
         <v>942076582</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="N20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(7984074, 'Keith', 'Richards', 'Home Gardens St',70312, 'Dartford', 'Kent',432753281,942076582);</v>
+        <f t="shared" si="1"/>
+        <v>insert into musician values(07984074, 'Keith', 'Richards', 'Home Gardens St',70312, 'Dartford', 'Kent',432753281,942076582);</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1308,11 +1311,11 @@
       <c r="I21" s="4">
         <v>947327617</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="N21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(7438203, 'Charlie', 'Watts', 'Cockspur St',70311, 'London', 'London',492758132,947327617);</v>
+        <f t="shared" si="1"/>
+        <v>insert into musician values(07438203, 'Charlie', 'Watts', 'Cockspur St',70311, 'London', 'London',492758132,947327617);</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1343,15 +1346,15 @@
       <c r="I22" s="4">
         <v>903725131</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="N22" t="str">
-        <f>CONCATENATE($P$1,A22,$P$3,B22,$P$3,C22,$P$3,D22,$P$3,E22,$P$3,F22,$P$3,G22,$P$3,H22,$P$3,I22,$P$2)</f>
-        <v>insert into musician values(4632752, 'Ron', 'Wood', 'Middlesex St',70312, 'London', 'London',432039192,903725131);</v>
+        <f t="shared" si="1"/>
+        <v>insert into musician values(04632752, 'Ron', 'Wood', 'Middlesex St',70312, 'London', 'London',432039192,903725131);</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1381,13 +1384,13 @@
       <c r="I24" s="4">
         <v>941297051</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="N24" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(8372185, 'Brian', 'Johnson', 'Rendel St',70322, 'Dunston', 'Gateshead',487509419,941297051);</v>
+      <c r="L24" s="7"/>
+      <c r="N24" s="6" t="str">
+        <f t="shared" ref="N24:N27" si="2">CONCATENATE($P$1,$M$1,A24,$P$3,B24,$P$3,C24,$P$3,D24,$P$3,E24,$P$3,F24,$P$3,G24,$P$3,H24,$P$3,I24,$P$2)</f>
+        <v>insert into musician values(08372185, 'Brian', 'Johnson', 'Rendel St',70322, 'Dunston', 'Gateshead',487509419,941297051);</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1418,11 +1421,11 @@
       <c r="I25" s="4">
         <v>943214751</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="N25" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(3245623, 'Angus', 'Young', 'Water St',70312, 'Sidney', 'Sidney',432191930,943214751);</v>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="N25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into musician values(03245623, 'Angus', 'Young', 'Water St',70312, 'Sidney', 'Sidney',432191930,943214751);</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1453,11 +1456,11 @@
       <c r="I26" s="4">
         <v>937518239</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="N26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(3144134, 'Stevie', 'Young', 'Sauchihall St',70311, 'Glasgow', 'London',457129104,937518239);</v>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="N26" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into musician values(03144134, 'Stevie', 'Young', 'Sauchihall St',70311, 'Glasgow', 'London',457129104,937518239);</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1488,11 +1491,11 @@
       <c r="I27" s="4">
         <v>934175182</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="N27" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into musician values(4321561, 'Phil', 'Rudd', 'La Trobe St',70312, 'Melbourne', 'Victoria',441732910,934175182);</v>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="N27" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into musician values(04321561, 'Phil', 'Rudd', 'La Trobe St',70312, 'Melbourne', 'Victoria',441732910,934175182);</v>
       </c>
     </row>
   </sheetData>
